--- a/docs/Master Test Plan.xlsx
+++ b/docs/Master Test Plan.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamaddenno/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D15E3-BAFA-E944-911C-F222D0DA4E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4980" windowWidth="28800" windowHeight="12220" tabRatio="863"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,11 +23,19 @@
     <sheet name="Related" sheetId="16" r:id="rId13"/>
     <sheet name="Stability-Performance" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="351">
   <si>
     <t>Correct representation of the application in the app store</t>
   </si>
@@ -1039,9 +1043,6 @@
     <t>The correct version of the application is available in the app store</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1066,29 +1067,110 @@
     <t>This one doesn't applies to tested app</t>
   </si>
   <si>
-    <t>Not testable</t>
-  </si>
-  <si>
     <t>TestWizard tool limitation</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>not testable</t>
-  </si>
-  <si>
     <t>TestWizard tool limitation.</t>
   </si>
   <si>
     <t>Incorrect copyrights date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Test cases in this Category </t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results can be filled with the Category:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <t>These tests mentioned in the different sheets are required to be performed for requesting App validation request;    Results can be only filled with the Category:  Pass ; Fail ;  N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details of the Issues Fixed in this released version </t>
+  </si>
+  <si>
+    <t>Sr. No. / Jira No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,8 +1209,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,8 +1303,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1337,12 +1505,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1416,29 +1786,131 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1446,6 +1918,51 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1454,57 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1517,7 +1983,855 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1573,7 +2887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1608,7 +2922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1816,570 +3130,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.83203125" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="40" customHeight="1">
+      <c r="A1" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="23" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+    </row>
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="3" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J4" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B5" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39" customHeight="1">
+      <c r="A18" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="A22" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" ht="30">
+      <c r="A24" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" thickBot="1"/>
+    <row r="28" spans="1:10" s="54" customFormat="1" ht="23" customHeight="1">
+      <c r="A28" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="71">
+        <f>SUM(D29:D31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="41">
+        <f>COUNTIF(H5:H26,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="42">
+        <f>COUNTIF(H5:H26,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" thickBot="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="D31" s="44">
+        <f>COUNTIF(H5:H26,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:J6"/>
+  <mergeCells count="16">
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F4:F7"/>
   </mergeCells>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="120" priority="25" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="28" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="116" priority="27" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="22" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="18" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="20" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="16" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H26">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -2393,21 +3853,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2423,11 +3883,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2437,7 +3897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
         <v>196</v>
       </c>
@@ -2451,17 +3911,15 @@
         <v>200</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>331</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
         <v>197</v>
       </c>
@@ -2475,17 +3933,15 @@
         <v>215</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H4" s="40"/>
       <c r="I4" s="5"/>
       <c r="J4" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="13" t="s">
         <v>198</v>
       </c>
@@ -2499,17 +3955,15 @@
         <v>206</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H5" s="40"/>
       <c r="I5" s="5"/>
       <c r="J5" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="13" t="s">
         <v>307</v>
       </c>
@@ -2523,14 +3977,55 @@
         <v>306</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H6" s="40"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickBot="1"/>
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="33">
+        <f>SUM(D9,D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="41">
+        <f>COUNTIF(H3:H6,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="42">
+        <f>COUNTIF(H3:H6,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" thickBot="1">
+      <c r="C11" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="43">
+        <f>COUNTIF(H3:H6,"N/A")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2538,20 +4033,34 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:F6"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -2565,21 +4074,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2595,11 +4104,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2609,7 +4118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
         <v>208</v>
       </c>
@@ -2623,17 +4132,15 @@
         <v>319</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>331</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
         <v>209</v>
       </c>
@@ -2647,17 +4154,15 @@
         <v>216</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H4" s="40"/>
       <c r="I4" s="5"/>
       <c r="J4" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="13" t="s">
         <v>210</v>
       </c>
@@ -2671,17 +4176,15 @@
         <v>218</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H5" s="40"/>
       <c r="I5" s="5"/>
       <c r="J5" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="13" t="s">
         <v>308</v>
       </c>
@@ -2697,12 +4200,53 @@
       <c r="E6" s="14"/>
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="H6" s="40"/>
       <c r="I6" s="14"/>
       <c r="J6" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1"/>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="33">
+        <f>SUM(D10,D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="41">
+        <f>COUNTIF(H3:H6,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="42">
+        <f>COUNTIF(H3:H6,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" thickBot="1">
+      <c r="C12" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="44">
+        <f>COUNTIF(H3:H6,"N/A")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2710,20 +4254,34 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:F5"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -2737,21 +4295,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2767,11 +4325,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2781,7 +4339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
         <v>222</v>
       </c>
@@ -2795,17 +4353,15 @@
         <v>254</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="25" t="s">
-        <v>331</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="14"/>
       <c r="J3" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
         <v>226</v>
       </c>
@@ -2819,17 +4375,15 @@
         <v>256</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>331</v>
-      </c>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="13" t="s">
         <v>227</v>
       </c>
@@ -2843,17 +4397,15 @@
         <v>259</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
-        <v>331</v>
-      </c>
+      <c r="H5" s="40"/>
       <c r="I5" s="14"/>
       <c r="J5" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="13" t="s">
         <v>229</v>
       </c>
@@ -2867,31 +4419,29 @@
         <v>225</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="25" t="s">
-        <v>331</v>
-      </c>
+      <c r="H6" s="40"/>
       <c r="I6" s="14"/>
       <c r="J6" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
@@ -2907,7 +4457,7 @@
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2921,7 +4471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" s="13" t="s">
         <v>230</v>
       </c>
@@ -2935,17 +4485,15 @@
         <v>240</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="25" t="s">
-        <v>331</v>
-      </c>
+      <c r="H9" s="40"/>
       <c r="I9" s="5"/>
       <c r="J9" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="13" t="s">
         <v>231</v>
       </c>
@@ -2959,17 +4507,15 @@
         <v>244</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="25" t="s">
-        <v>331</v>
-      </c>
+      <c r="H10" s="40"/>
       <c r="I10" s="5"/>
       <c r="J10" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="13" t="s">
         <v>232</v>
       </c>
@@ -2983,17 +4529,15 @@
         <v>247</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="25" t="s">
-        <v>331</v>
-      </c>
+      <c r="H11" s="40"/>
       <c r="I11" s="14"/>
       <c r="J11" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="13" t="s">
         <v>236</v>
       </c>
@@ -3009,15 +4553,13 @@
       <c r="E12" s="14"/>
       <c r="F12" s="18"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>331</v>
-      </c>
+      <c r="H12" s="40"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="A13" s="13" t="s">
         <v>248</v>
       </c>
@@ -3033,29 +4575,27 @@
       <c r="E13" s="14"/>
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>331</v>
-      </c>
+      <c r="H13" s="40"/>
       <c r="I13" s="17"/>
       <c r="J13" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3071,7 +4611,7 @@
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +4625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="13" t="s">
         <v>249</v>
       </c>
@@ -3099,17 +4639,15 @@
         <v>220</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="17" t="s">
-        <v>331</v>
-      </c>
+      <c r="H16" s="40"/>
       <c r="I16" s="14"/>
       <c r="J16" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="13" t="s">
         <v>250</v>
       </c>
@@ -3123,17 +4661,15 @@
         <v>225</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="17" t="s">
-        <v>331</v>
-      </c>
+      <c r="H17" s="40"/>
       <c r="I17" s="14"/>
       <c r="J17" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="13" t="s">
         <v>251</v>
       </c>
@@ -3147,17 +4683,15 @@
         <v>242</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="17" t="s">
-        <v>331</v>
-      </c>
+      <c r="H18" s="40"/>
       <c r="I18" s="14"/>
       <c r="J18" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="13" t="s">
         <v>262</v>
       </c>
@@ -3171,31 +4705,29 @@
         <v>235</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="17" t="s">
-        <v>331</v>
-      </c>
+      <c r="H19" s="40"/>
       <c r="I19" s="14"/>
       <c r="J19" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +4743,7 @@
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3225,7 +4757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="13" t="s">
         <v>263</v>
       </c>
@@ -3239,14 +4771,55 @@
         <v>274</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
-        <v>331</v>
-      </c>
+      <c r="H22" s="40"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1"/>
+    <row r="25" spans="1:10" ht="16">
+      <c r="A25" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="33">
+        <f>SUM(D26:D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="41">
+        <f>COUNTIF(H3:H22,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="42">
+        <f>COUNTIF(H3:H22,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16" thickBot="1">
+      <c r="C28" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="43">
+        <f>COUNTIF(H3:H22,"N/A")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3260,20 +4833,76 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="F15:F19"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H13">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H19">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -3287,21 +4916,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -3317,11 +4946,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3331,7 +4960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
         <v>276</v>
       </c>
@@ -3345,33 +4974,88 @@
         <v>279</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" thickBot="1"/>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="33">
+        <f>SUM(D7:D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="41">
+        <f>COUNTIF(H3,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="42">
+        <f>COUNTIF(H3,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" thickBot="1">
+      <c r="C9" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="43">
+        <f>COUNTIF(H3,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -3385,21 +5069,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -3415,11 +5099,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3429,7 +5113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
         <v>280</v>
       </c>
@@ -3445,15 +5129,13 @@
       <c r="E3" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="13" t="s">
         <v>287</v>
       </c>
@@ -3469,15 +5151,13 @@
       <c r="E4" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="H4" s="40"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>288</v>
       </c>
@@ -3491,29 +5171,27 @@
         <v>286</v>
       </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="H5" s="40"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -3529,11 +5207,11 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3543,7 +5221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
         <v>289</v>
       </c>
@@ -3557,13 +5235,54 @@
         <v>293</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>330</v>
-      </c>
+      <c r="H8" s="40"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickBot="1"/>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="33">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="41">
+        <f>COUNTIF(H3:H8,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="42">
+        <f>COUNTIF(H3:H8,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" thickBot="1">
+      <c r="C14" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="43">
+        <f>COUNTIF(H3:H8,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3572,20 +5291,48 @@
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="F7:F8"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H5">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -3599,21 +5346,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
+      <c r="A1" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3629,11 +5376,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3643,7 +5390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -3657,15 +5404,13 @@
         <v>314</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="H3" s="37"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -3679,15 +5424,13 @@
         <v>63</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="33" t="s">
-        <v>331</v>
-      </c>
+      <c r="H4" s="37"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -3701,15 +5444,13 @@
         <v>66</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="33" t="s">
-        <v>331</v>
-      </c>
+      <c r="H5" s="37"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -3723,15 +5464,13 @@
         <v>63</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="33" t="s">
-        <v>331</v>
-      </c>
+      <c r="H6" s="37"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -3745,15 +5484,13 @@
         <v>76</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="33" t="s">
-        <v>331</v>
-      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -3767,33 +5504,359 @@
         <v>72</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="H8" s="37"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" thickBot="1"/>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="33">
+        <f>SUM(D11:D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="41">
+        <f>COUNTIF(H3:H8,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="42">
+        <f>COUNTIF(H3:H8,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1">
+      <c r="C13" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="44">
+        <f>COUNTIF(H3:H8,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickBot="1"/>
+    <row r="11" spans="1:10" ht="16">
+      <c r="B11" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="33">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="41">
+        <f>COUNTIF(H3:H9,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="42">
+        <f>COUNTIF(H3:H9,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" thickBot="1">
+      <c r="D14" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="44">
+        <f>COUNTIF(H3:H9,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -3807,21 +5870,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
+      <c r="A1" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3837,11 +5900,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="46" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3851,177 +5914,113 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>135</v>
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+    <row r="4" spans="1:10" ht="16" thickBot="1">
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="33">
+        <f>SUM(D6:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="41">
+        <f>COUNTIF(H3,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="42">
+        <f>COUNTIF(H3,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1">
+      <c r="C8" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="44">
+        <f>COUNTIF(H3,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -4035,21 +6034,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
+      <c r="A1" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4065,11 +6064,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -4079,49 +6078,829 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="45"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" thickBot="1"/>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="33">
+        <f>SUM(D7:D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="41">
+        <f>COUNTIF(H3:H4,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="42">
+        <f>COUNTIF(H3:H4,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" thickBot="1">
+      <c r="C9" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="44">
+        <f>COUNTIF(H3:H4,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="89"/>
+      <c r="G25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="A27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1"/>
+    <row r="30" spans="1:10" ht="16">
+      <c r="A30" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="33">
+        <f>SUM(D31,D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="C31" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="41">
+        <f>COUNTIF(H3:H28,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="42">
+        <f>COUNTIF(H3:H28,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="16" thickBot="1">
+      <c r="C33" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="44">
+        <f>COUNTIF(H3:H28,"N/A")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H12">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H16">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H23">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H28">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -4135,25 +6914,25 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4165,11 +6944,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -4179,699 +6958,310 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>331</v>
-      </c>
+    <row r="3" spans="1:10">
+      <c r="A3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>333</v>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="86"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" ht="16">
+      <c r="A14" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="33">
+        <f>SUM(D15,D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="41">
+        <f>COUNTIF(H3:H12,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="42">
+        <f>COUNTIF(H3:H12,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="16" thickBot="1">
+      <c r="C17" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="44">
+        <f>COUNTIF(H3:H12,"N/A")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G9:G12"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H13">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" activeCellId="1" sqref="H2 H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="F2:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -4885,21 +7275,21 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -4915,11 +7305,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -4929,253 +7319,224 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" thickBot="1"/>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="33">
+        <f>SUM(D11,D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="41">
+        <f>COUNTIF(H3:H8,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="42">
+        <f>COUNTIF(H3:H8,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1">
+      <c r="C13" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="D13" s="44">
+        <f>COUNTIF(H3:H8,"N/A")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G9:G12"/>
+  <mergeCells count="6">
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
@@ -5189,25 +7550,25 @@
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5219,11 +7580,11 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -5233,219 +7594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
         <v>191</v>
       </c>
@@ -5459,14 +7608,55 @@
         <v>318</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="H3" s="40"/>
       <c r="I3" s="5"/>
       <c r="J3" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" thickBot="1"/>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="33">
+        <f>SUM(D6,D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="41">
+        <f>COUNTIF(H3,"Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="35" t="s">
         <v>343</v>
+      </c>
+      <c r="D7" s="42">
+        <f>COUNTIF(H3,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1">
+      <c r="C8" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="44">
+        <f>COUNTIF(H3,N/A)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5474,6 +7664,20 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
